--- a/app/Helpers/Excel/template/t_nyusyuko__nipou.xlsx
+++ b/app/Helpers/Excel/template/t_nyusyuko__nipou.xlsx
@@ -22,7 +22,7 @@
     <definedName name="打ち合わせメモ４">#REF!</definedName>
     <definedName name="打ち合わせメモ５">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -91,7 +91,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="165" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm;@"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -345,6 +345,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -354,10 +370,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -367,20 +379,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -772,9 +772,7 @@
   </sheetPr>
   <dimension ref="A2:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" customHeight="1"/>
   <cols>
@@ -787,31 +785,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="11.25" customHeight="1">
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:16" ht="11.25" customHeight="1">
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16" ht="11.25" customHeight="1">
@@ -829,7 +827,7 @@
     </row>
     <row r="7" spans="1:16" ht="5.25" customHeight="1"/>
     <row r="8" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -838,37 +836,37 @@
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="24" t="s">
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="24" t="s">
+      <c r="I8" s="29"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="24" t="s">
+      <c r="L8" s="29"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="25"/>
-      <c r="P8" s="26"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="30"/>
     </row>
     <row r="9" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A9" s="18"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="18"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="7" t="s">
         <v>5</v>
       </c>
@@ -909,38 +907,38 @@
     <row r="10" spans="1:16" ht="11.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:16" ht="11.25" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
     </row>
     <row r="12" spans="1:16" ht="11.25" customHeight="1">
       <c r="A12" s="9"/>
@@ -1575,62 +1573,43 @@
     <row r="47" spans="1:16" ht="11.25" customHeight="1">
       <c r="A47" s="9"/>
       <c r="B47" s="10"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
     </row>
     <row r="48" spans="1:16" ht="11.25" customHeight="1">
       <c r="A48" s="11"/>
       <c r="B48" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="O10:O11"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C2:K3"/>
     <mergeCell ref="C10:C11"/>
@@ -1644,6 +1623,25 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="L47:L48"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1652,18 +1650,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1844,6 +1842,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{025EAFA2-461C-4B4F-A9E2-5C3A205A97A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5206B66B-0412-4EDC-8A4A-51105F5A35BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1856,14 +1862,6 @@
     <ds:schemaRef ds:uri="7e23b3fd-46ad-45a9-ad9f-5d2d2a86b287"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{025EAFA2-461C-4B4F-A9E2-5C3A205A97A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
